--- a/星星图/KBCF_UAVDT_data.xlsx
+++ b/星星图/KBCF_UAVDT_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\hyj-small-repo\v4r-matlab-plot\星星图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63671D0-F3FB-4411-8906-50DAB40C633F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF52F70-6E4B-462A-B1ED-2865E48F6A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{7CCD5E01-2739-4E98-B70D-551EDE9C9E0F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>KCF</t>
   </si>
@@ -591,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A40501-9912-44E4-AF6F-9AFF1C6D3D05}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1166,52 +1166,35 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1">
-        <v>0.65586393034475354</v>
+        <v>0.57861815184335841</v>
       </c>
       <c r="C34" s="1">
-        <v>0.24466991845600766</v>
+        <v>0.31217090468870246</v>
       </c>
       <c r="D34" s="2">
-        <v>3.2364148420129619</v>
+        <v>15.828076002709608</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
-        <v>0.57861815184335841</v>
+        <v>0.68143203339607683</v>
       </c>
       <c r="C35" s="1">
-        <v>0.31217090468870246</v>
+        <v>0.35456701071917174</v>
       </c>
       <c r="D35" s="2">
-        <v>15.828076002709608</v>
+        <v>148.28816973509328</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0.68143203339607683</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.35456701071917174</v>
-      </c>
-      <c r="D36" s="2">
-        <v>148.28816973509328</v>
-      </c>
-      <c r="E36" t="s">
         <v>44</v>
       </c>
     </row>
